--- a/EstudiantesTest.xlsx
+++ b/EstudiantesTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>
@@ -82,12 +82,16 @@
   </si>
   <si>
     <t>1523554622</t>
+  </si>
+  <si>
+    <t>[Ya existe el estudiante]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -476,28 +480,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMD997"/>
+  <dimension ref="A1:U997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="20" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="22" max="1018" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="12" max="20" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="6" width="14.42578125" collapsed="true"/>
+    <col min="22" max="1018" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1">
@@ -600,6 +604,9 @@
       <c r="R2" s="2"/>
       <c r="S2" s="4"/>
       <c r="T2" s="9"/>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:21" ht="15.75" customHeight="1"/>

--- a/EstudiantesTest.xlsx
+++ b/EstudiantesTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>

--- a/EstudiantesTest.xlsx
+++ b/EstudiantesTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>

--- a/EstudiantesTest.xlsx
+++ b/EstudiantesTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>

--- a/EstudiantesTest.xlsx
+++ b/EstudiantesTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>

--- a/EstudiantesTest.xlsx
+++ b/EstudiantesTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>
